--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Psap-Gpr37l1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Psap-Gpr37l1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>685.3782603333333</v>
+        <v>72.92148999999999</v>
       </c>
       <c r="H2">
-        <v>2056.134781</v>
+        <v>218.76447</v>
       </c>
       <c r="I2">
-        <v>0.7131285654702259</v>
+        <v>0.2015977907456805</v>
       </c>
       <c r="J2">
-        <v>0.7131285654702259</v>
+        <v>0.2015977907456805</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,10 +552,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.288321666666667</v>
+        <v>2.546605</v>
       </c>
       <c r="N2">
-        <v>3.864965000000001</v>
+        <v>7.639815</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>882.9876626497406</v>
+        <v>185.70223104145</v>
       </c>
       <c r="R2">
-        <v>7946.888963847666</v>
+        <v>1671.32007937305</v>
       </c>
       <c r="S2">
-        <v>0.7131285654702259</v>
+        <v>0.2015977907456805</v>
       </c>
       <c r="T2">
-        <v>0.7131285654702259</v>
+        <v>0.2015977907456805</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>641.423905</v>
       </c>
       <c r="I3">
-        <v>0.2224648468854243</v>
+        <v>0.591090693015494</v>
       </c>
       <c r="J3">
-        <v>0.2224648468854243</v>
+        <v>0.591090693015494</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,10 +614,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.288321666666667</v>
+        <v>2.546605</v>
       </c>
       <c r="N3">
-        <v>3.864965000000001</v>
+        <v>7.639815</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>275.4534381098139</v>
+        <v>544.4844411975083</v>
       </c>
       <c r="R3">
-        <v>2479.080942988325</v>
+        <v>4900.359970777575</v>
       </c>
       <c r="S3">
-        <v>0.2224648468854243</v>
+        <v>0.591090693015494</v>
       </c>
       <c r="T3">
-        <v>0.2224648468854243</v>
+        <v>0.591090693015494</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.90030400000001</v>
+        <v>74.98824566666667</v>
       </c>
       <c r="H4">
-        <v>185.700912</v>
+        <v>224.964737</v>
       </c>
       <c r="I4">
-        <v>0.06440658764434989</v>
+        <v>0.2073115162388255</v>
       </c>
       <c r="J4">
-        <v>0.06440658764434989</v>
+        <v>0.2073115162388255</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,10 +676,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.288321666666667</v>
+        <v>2.546605</v>
       </c>
       <c r="N4">
-        <v>3.864965000000001</v>
+        <v>7.639815</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>79.74750281645335</v>
+        <v>190.9654413559617</v>
       </c>
       <c r="R4">
-        <v>717.7275253480802</v>
+        <v>1718.688972203655</v>
       </c>
       <c r="S4">
-        <v>0.06440658764434989</v>
+        <v>0.2073115162388255</v>
       </c>
       <c r="T4">
-        <v>0.06440658764434989</v>
+        <v>0.2073115162388255</v>
       </c>
     </row>
   </sheetData>
